--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2459.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2459.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.090453678744308</v>
+        <v>1.68539023399353</v>
       </c>
       <c r="B1">
-        <v>2.420919341528891</v>
+        <v>2.255630731582642</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.286489725112915</v>
       </c>
       <c r="D1">
-        <v>3.106063650763939</v>
+        <v>4.43482494354248</v>
       </c>
       <c r="E1">
-        <v>0.9563566489986595</v>
+        <v>0.6409188508987427</v>
       </c>
     </row>
   </sheetData>
